--- a/testdata/myfile.xlsx
+++ b/testdata/myfile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>dopey@example.org</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Journeyman Status</t>
   </si>
 </sst>
 </file>
@@ -397,76 +403,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>165</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>221</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>172</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>249</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
